--- a/data/trans_dic/P37A$medicootras-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicootras-Edad-trans_dic.xlsx
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0028839145696159</v>
+        <v>0.002359950357556485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003524795498848288</v>
+        <v>0.003501648762233433</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
@@ -722,17 +722,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002337198383769245</v>
+        <v>0.002373708072121855</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003486567425814355</v>
+        <v>0.002681153311188099</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004384873916538298</v>
+        <v>0.004575955783528428</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -744,31 +744,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009762535992512993</v>
+        <v>0.009596696204360359</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02575768787455587</v>
+        <v>0.0250737971550258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02650042788982292</v>
+        <v>0.02547156662866242</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.0166287382386708</v>
+        <v>0.01656680862395797</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02392661974678211</v>
+        <v>0.02346495617464757</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.005335604237736703</v>
+        <v>0.00499305501894648</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01562177329826998</v>
+        <v>0.01521199904158103</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01958190374371603</v>
+        <v>0.01968027403040144</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -831,37 +831,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002581476803765472</v>
+        <v>0.002664075302185744</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002313101060321448</v>
+        <v>0.002332994785815518</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002977091749476292</v>
+        <v>0.00314237461867646</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001493946684843742</v>
+        <v>0.001493815239775389</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01097195854285324</v>
+        <v>0.01140638312685886</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0007204244337804431</v>
+        <v>0.0007216170906969205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003739580790915582</v>
+        <v>0.004234574374987912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001509357601460647</v>
+        <v>0.001531141303621661</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008977997477770042</v>
+        <v>0.008775366674265556</v>
       </c>
     </row>
     <row r="9">
@@ -872,40 +872,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007716440502422803</v>
+        <v>0.007058753025675741</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02223429553401752</v>
+        <v>0.02223015005270303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01190200374576724</v>
+        <v>0.01058018135482729</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03321162245278544</v>
+        <v>0.03363690968910548</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01113280507314337</v>
+        <v>0.01203685240555015</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02220284059790142</v>
+        <v>0.02230322188498041</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01243086274644357</v>
+        <v>0.01254887460720681</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04075178537201479</v>
+        <v>0.04074286920966384</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.006613892104526375</v>
+        <v>0.006605075169778843</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01670326960596346</v>
+        <v>0.01723994285768036</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.009418436093193743</v>
+        <v>0.008781761735577136</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03026256285475476</v>
+        <v>0.03049925059932138</v>
       </c>
     </row>
     <row r="10">
@@ -965,37 +965,37 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.001049743882729922</v>
+        <v>0.001057565553075298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001343507291764304</v>
+        <v>0.001339687243296152</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001379711561487244</v>
+        <v>0.001388283318710627</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004119069164293615</v>
+        <v>0.003965663801784142</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004275287700932681</v>
+        <v>0.004197423601526359</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007918832154099022</v>
+        <v>0.00844572083365033</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0</v>
+        <v>0.0007151555706946117</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003223449213231168</v>
+        <v>0.003160820270980277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004126127449758121</v>
+        <v>0.004157949473566706</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004782858360501439</v>
+        <v>0.004867826398616299</v>
       </c>
     </row>
     <row r="12">
@@ -1007,37 +1007,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.009816573269745504</v>
+        <v>0.009787091470060589</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01853816079130422</v>
+        <v>0.01532699051681789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01038727101160425</v>
+        <v>0.01053072833273122</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0130274410097514</v>
+        <v>0.01157107435144258</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0191026182774489</v>
+        <v>0.01888839562363094</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0213678900905707</v>
+        <v>0.02057494118794687</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02573937877363554</v>
+        <v>0.02677980270664169</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.00609123587111498</v>
+        <v>0.006184648082071833</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01149072696551109</v>
+        <v>0.01148635832471629</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01495237763633228</v>
+        <v>0.0159896839905359</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01499980882877643</v>
+        <v>0.01457582611703163</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0.008069747845165474</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.002831673873646887</v>
+        <v>0.002831673873646886</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.001892088748598442</v>
@@ -1085,7 +1085,7 @@
         <v>0.006438277744060553</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.006552118201196767</v>
+        <v>0.006552118201196768</v>
       </c>
     </row>
     <row r="14">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001756572176097797</v>
+        <v>0.001751649815381039</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003213880486172881</v>
+        <v>0.003063298040501892</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001742180171910077</v>
+        <v>0.001732773081605516</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001538003078168376</v>
+        <v>0.00153870489219623</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005403444653135403</v>
+        <v>0.005592041481070629</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001636927891666107</v>
+        <v>0.001018201146833094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.001703538930070975</v>
+        <v>0.001711596155858309</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003072398821564112</v>
+        <v>0.003046141946913266</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.003790763617627662</v>
+        <v>0.00371166937555948</v>
       </c>
     </row>
     <row r="15">
@@ -1140,40 +1140,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02052981704349123</v>
+        <v>0.01952292876743807</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.008471605085367742</v>
+        <v>0.006831513099328995</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01773322412083238</v>
+        <v>0.01911398645086609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0104345025132562</v>
+        <v>0.01003535786640104</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.009438372165258894</v>
+        <v>0.008113809472867073</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0161171460969454</v>
+        <v>0.01590956926700846</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01306923000480465</v>
+        <v>0.0142927734418284</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01786832164053993</v>
+        <v>0.01916397429284529</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01207760025642591</v>
+        <v>0.01115164044907216</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.009687634270031676</v>
+        <v>0.009774360386668714</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01172865294949747</v>
+        <v>0.01302459924475524</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01040180072239156</v>
+        <v>0.0116272547263693</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.006660365936538485</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02032591816138891</v>
+        <v>0.02032591816138892</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.001294065592191689</v>
@@ -1239,31 +1239,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005111753717350578</v>
+        <v>0.005030483646265227</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004498025044300778</v>
+        <v>0.002452360071304718</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.002199860110805133</v>
+        <v>0.002194577940777338</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01277062688743408</v>
+        <v>0.01258181582256459</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.003482311506330859</v>
+        <v>0.002508751694690835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.001144914558549233</v>
+        <v>0.001152388175547045</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01055352536013962</v>
+        <v>0.01091671576229461</v>
       </c>
     </row>
     <row r="18">
@@ -1275,37 +1275,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01682167396908064</v>
+        <v>0.01691825328437999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01245285380493047</v>
+        <v>0.01256805687272412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02410098037469971</v>
+        <v>0.0218905310129456</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01272424988734402</v>
+        <v>0.01428508534295914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02995400228118705</v>
+        <v>0.03296120932306158</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01883220224425642</v>
+        <v>0.01883680601668505</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.030727225497508</v>
+        <v>0.03035416059464105</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.007772448826198535</v>
+        <v>0.006494453476529231</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0176244223814122</v>
+        <v>0.01726547743991892</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01165425560683211</v>
+        <v>0.01099761484406746</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02309059485149176</v>
+        <v>0.02349145008632348</v>
       </c>
     </row>
     <row r="19">
@@ -1341,7 +1341,7 @@
         <v>0.007601344557616433</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.01150995077582612</v>
+        <v>0.01150995077582611</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.002734334149466383</v>
@@ -1368,10 +1368,10 @@
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.002677814789742908</v>
+        <v>0.002707648415163545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.007526852485143724</v>
+        <v>0.007781144449755533</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
@@ -1379,17 +1379,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005013073067801618</v>
+        <v>0.005388821781532042</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
-        <v>0.002722324070578315</v>
+        <v>0.002713442515193976</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.00858225602623996</v>
+        <v>0.008519069890556369</v>
       </c>
     </row>
     <row r="21">
@@ -1400,32 +1400,32 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01906068791974129</v>
+        <v>0.02114409464168724</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.0203940070193825</v>
+        <v>0.02422184527244117</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03092457794671967</v>
+        <v>0.03309658034832641</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.02771170695240175</v>
+        <v>0.02743475096350832</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01989706373278366</v>
+        <v>0.02061593542705356</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.009587892984064825</v>
+        <v>0.009859076315879576</v>
       </c>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.01901881842981384</v>
+        <v>0.01875379027031788</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.022806140002001</v>
+        <v>0.02293293406732047</v>
       </c>
     </row>
     <row r="22">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.00282591480722623</v>
+        <v>0.003680615912656521</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="n">
-        <v>0.001764676372575802</v>
+        <v>0.001761151589794031</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.002317242822981843</v>
+        <v>0.002363115440584985</v>
       </c>
     </row>
     <row r="24">
@@ -1521,31 +1521,31 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.02836795124403847</v>
+        <v>0.02824147232130294</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01584786978022416</v>
+        <v>0.01978621618275425</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.009895739687306185</v>
+        <v>0.0121170665694759</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.02040010808611435</v>
+        <v>0.02061348863941714</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.01653010130311482</v>
+        <v>0.01606897766160677</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="n">
-        <v>0.01394883294064217</v>
+        <v>0.01513830199130262</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.006384728503053783</v>
+        <v>0.00620143403550779</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01100011579030214</v>
+        <v>0.01047921623598121</v>
       </c>
     </row>
     <row r="25">
@@ -1593,7 +1593,7 @@
         <v>0.006207119828624363</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.009948664285043259</v>
+        <v>0.009948664285043258</v>
       </c>
     </row>
     <row r="26">
@@ -1604,40 +1604,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0009018086375246601</v>
+        <v>0.0009036121130945999</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002864599044714509</v>
+        <v>0.002882314616114902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.00368093441509855</v>
+        <v>0.003689696133740569</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.004039313738757862</v>
+        <v>0.004111549209080002</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.000905580355833224</v>
+        <v>0.0008686253391720767</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.005050172306918727</v>
+        <v>0.004630095739267166</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.00406448118939227</v>
+        <v>0.004056982255793869</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01043969809750193</v>
+        <v>0.01036646240382793</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.001212373015355025</v>
+        <v>0.001197630879632291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.004259024313556153</v>
+        <v>0.004411718006102496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.004457978384461964</v>
+        <v>0.004420041932431642</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.007928780696614585</v>
+        <v>0.008016949014347531</v>
       </c>
     </row>
     <row r="27">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.004664490144375697</v>
+        <v>0.004544747012059354</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.008499324451281992</v>
+        <v>0.008000877454570314</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009334009483488831</v>
+        <v>0.009356272597566188</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.009954095389017668</v>
+        <v>0.01039810881097946</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.004261483939172141</v>
+        <v>0.004359932161711474</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01109452818889031</v>
+        <v>0.01078745406469793</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.009811720797687943</v>
+        <v>0.009735420082463999</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01675978863905721</v>
+        <v>0.01683789826747833</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.00366321851832855</v>
+        <v>0.003566588358439192</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.008368123077298928</v>
+        <v>0.008312600354813298</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.008199683479153071</v>
+        <v>0.008149538279380371</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0124712331730878</v>
+        <v>0.01259300510428923</v>
       </c>
     </row>
     <row r="28">
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1310</v>
+        <v>1072</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -1969,17 +1969,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>925</v>
+        <v>939</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3083</v>
+        <v>2371</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3575</v>
+        <v>3730</v>
       </c>
       <c r="N6" s="6" t="inlineStr"/>
     </row>
@@ -1991,31 +1991,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4823</v>
+        <v>4741</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11698</v>
+        <v>11387</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11116</v>
+        <v>10684</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7154</v>
+        <v>7128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9469</v>
+        <v>9286</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>5130</v>
+        <v>4801</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13816</v>
+        <v>13453</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15964</v>
+        <v>16044</v>
       </c>
       <c r="N7" s="6" t="inlineStr"/>
     </row>
@@ -2122,37 +2122,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1774</v>
+        <v>1830</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1817</v>
+        <v>1918</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>842</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5505</v>
+        <v>5723</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4852</v>
+        <v>5494</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1742</v>
+        <v>1767</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8786</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="11">
@@ -2163,40 +2163,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5675</v>
+        <v>5192</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15277</v>
+        <v>15274</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7028</v>
+        <v>6248</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15838</v>
+        <v>16041</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6964</v>
+        <v>7529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13549</v>
+        <v>13611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7005</v>
+        <v>7072</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20447</v>
+        <v>20442</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9001</v>
+        <v>8989</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>21670</v>
+        <v>22366</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10869</v>
+        <v>10135</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29616</v>
+        <v>29847</v>
       </c>
     </row>
     <row r="12">
@@ -2300,37 +2300,37 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2928</v>
+        <v>2819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2828</v>
+        <v>2776</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4935</v>
+        <v>5263</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4489</v>
+        <v>4402</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5490</v>
+        <v>5532</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5950</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="15">
@@ -2342,37 +2342,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>6694</v>
+        <v>6673</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12404</v>
+        <v>10255</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6449</v>
+        <v>6538</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8986</v>
+        <v>7981</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13579</v>
+        <v>13427</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14132</v>
+        <v>13608</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16041</v>
+        <v>16689</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8092</v>
+        <v>8216</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16003</v>
+        <v>15997</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19894</v>
+        <v>21274</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18660</v>
+        <v>18133</v>
       </c>
     </row>
     <row r="16">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2076</v>
+        <v>1979</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -2490,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3982</v>
+        <v>4121</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1694</v>
+        <v>1054</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2097</v>
+        <v>2107</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3979</v>
+        <v>3945</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5449</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="19">
@@ -2519,40 +2519,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10658</v>
+        <v>10135</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5207</v>
+        <v>4199</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11457</v>
+        <v>12349</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7311</v>
+        <v>7031</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4867</v>
+        <v>4184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9931</v>
+        <v>9803</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8483</v>
+        <v>9277</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13167</v>
+        <v>14122</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12498</v>
+        <v>11540</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11924</v>
+        <v>12030</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15190</v>
+        <v>16868</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>14953</v>
+        <v>16714</v>
       </c>
     </row>
     <row r="20">
@@ -2662,31 +2662,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3115</v>
+        <v>3065</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2014</v>
+        <v>1098</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7775</v>
+        <v>7661</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3055</v>
+        <v>2201</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>12856</v>
+        <v>13299</v>
       </c>
     </row>
     <row r="23">
@@ -2698,37 +2698,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>7224</v>
+        <v>7265</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5951</v>
+        <v>6007</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14686</v>
+        <v>13339</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5140</v>
+        <v>5771</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13413</v>
+        <v>14760</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9357</v>
+        <v>9359</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18708</v>
+        <v>18481</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6146</v>
+        <v>5135</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>15461</v>
+        <v>15146</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>11360</v>
+        <v>10720</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>28129</v>
+        <v>28617</v>
       </c>
     </row>
     <row r="24">
@@ -2835,10 +2835,10 @@
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3064</v>
+        <v>3168</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
@@ -2846,17 +2846,17 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2202</v>
+        <v>2367</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="inlineStr"/>
       <c r="M26" s="6" t="n">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7263</v>
+        <v>7209</v>
       </c>
     </row>
     <row r="27">
@@ -2867,32 +2867,32 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5577</v>
+        <v>6186</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>6818</v>
+        <v>8098</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12589</v>
+        <v>13473</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>10468</v>
+        <v>10364</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8738</v>
+        <v>9054</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6093</v>
+        <v>6266</v>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>13543</v>
+        <v>13354</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>19300</v>
+        <v>19407</v>
       </c>
     </row>
     <row r="28">
@@ -3010,17 +3010,17 @@
       </c>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>1313</v>
+        <v>1710</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
       <c r="L30" s="6" t="n">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1795</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="31">
@@ -3032,31 +3032,31 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>7088</v>
+        <v>7056</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4073</v>
+        <v>5085</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3070</v>
+        <v>3759</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>7935</v>
+        <v>8018</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>7680</v>
+        <v>7466</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="n">
-        <v>8911</v>
+        <v>9671</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>4196</v>
+        <v>4075</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>8523</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="32">
@@ -3159,40 +3159,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9816</v>
+        <v>9877</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>12494</v>
+        <v>12524</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>14270</v>
+        <v>14525</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3060</v>
+        <v>2935</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>17970</v>
+        <v>16475</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>14407</v>
+        <v>14380</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>39013</v>
+        <v>38739</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>8069</v>
+        <v>7971</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>29750</v>
+        <v>30816</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>30933</v>
+        <v>30670</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>57640</v>
+        <v>58281</v>
       </c>
     </row>
     <row r="35">
@@ -3203,40 +3203,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15283</v>
+        <v>14891</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>29125</v>
+        <v>27417</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>31683</v>
+        <v>31758</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>35165</v>
+        <v>36734</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14400</v>
+        <v>14733</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>39478</v>
+        <v>38385</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>34778</v>
+        <v>34508</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>62631</v>
+        <v>62922</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>24381</v>
+        <v>23738</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>58452</v>
+        <v>58064</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>56897</v>
+        <v>56549</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>90662</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="36">
